--- a/KM5c_data/ODP_Site_907.xlsx
+++ b/KM5c_data/ODP_Site_907.xlsx
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="S2">
-        <v>2.52997059</v>
+        <v>1.45</v>
       </c>
       <c r="T2">
-        <v>0.97002941</v>
+        <v>2.046592968040042</v>
       </c>
       <c r="U2">
-        <v>0.62907717</v>
+        <v>1.705640728040043</v>
       </c>
       <c r="V2">
         <v>-4.984848484848484</v>
